--- a/Accounts-Schedules/تدريب سامسونج 7-10-2025.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج 7-10-2025.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$2:$J$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$2:$J$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
   <si>
     <t>Below is the list of trainees scheduled for the Training at Samsung on Tuesday, October, 7th, from 9 AM to 6 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -198,6 +198,12 @@
     <t>مستشفى احمد ماهر</t>
   </si>
   <si>
+    <t>Yousra Mubarak</t>
+  </si>
+  <si>
+    <t>Lama Gaffer</t>
+  </si>
+  <si>
     <t>Start</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>آية أحمد</t>
   </si>
   <si>
+    <t>لاما جعفر</t>
+  </si>
+  <si>
     <t>ثريا معتز</t>
   </si>
   <si>
@@ -259,6 +268,9 @@
   </si>
   <si>
     <t>سيف وليد</t>
+  </si>
+  <si>
+    <t>يسرا مبارك</t>
   </si>
   <si>
     <t>رغد محمد</t>
@@ -290,7 +302,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +346,27 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -482,7 +515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +537,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF46BDC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,137 +925,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,6 +1094,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1583,10 +1643,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1948,6 +2008,48 @@
         <v>54</v>
       </c>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="17">
+        <v>1112106710</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="16">
+        <v>1118082037</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1957,10 +2059,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:J21"/>
+  <dimension ref="C1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="C3:I21"/>
+      <selection activeCell="C23" sqref="C3:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1981,16 +2083,16 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="16.25" spans="3:10">
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
@@ -2005,7 +2107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="15.25" spans="3:10">
+    <row r="3" spans="3:10">
       <c r="C3" s="4">
         <v>0.375</v>
       </c>
@@ -2016,10 +2118,10 @@
         <v>1145687909</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>53</v>
@@ -2031,7 +2133,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="15.25" spans="3:10">
+    <row r="4" spans="3:10">
       <c r="C4" s="4">
         <v>0.375</v>
       </c>
@@ -2042,10 +2144,10 @@
         <v>1203330220</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>42</v>
@@ -2057,7 +2159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="15.25" spans="3:10">
+    <row r="5" spans="3:10">
       <c r="C5" s="4">
         <v>0.375</v>
       </c>
@@ -2068,10 +2170,10 @@
         <v>1019247490</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>42</v>
@@ -2083,7 +2185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="15.25" spans="3:10">
+    <row r="6" spans="3:10">
       <c r="C6" s="4">
         <v>0.375</v>
       </c>
@@ -2091,25 +2193,25 @@
         <v>0.75</v>
       </c>
       <c r="E6" s="5">
-        <v>1124540745</v>
+        <v>1118082037</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="15.25" spans="3:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
       <c r="C7" s="4">
         <v>0.375</v>
       </c>
@@ -2117,13 +2219,13 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="5">
-        <v>1012997137</v>
+        <v>1124540745</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
@@ -2132,10 +2234,10 @@
         <v>10</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" ht="15.25" spans="3:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
       <c r="C8" s="4">
         <v>0.375</v>
       </c>
@@ -2143,25 +2245,25 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="5">
-        <v>1090500604</v>
+        <v>1012997137</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="15.25" spans="3:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
       <c r="C9" s="4">
         <v>0.375</v>
       </c>
@@ -2169,25 +2271,25 @@
         <v>0.75</v>
       </c>
       <c r="E9" s="5">
-        <v>1022171730</v>
+        <v>1090500604</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" spans="3:10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
       <c r="C10" s="4">
         <v>0.375</v>
       </c>
@@ -2195,25 +2297,25 @@
         <v>0.75</v>
       </c>
       <c r="E10" s="5">
-        <v>1080543842</v>
+        <v>1022171730</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="3:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
       <c r="C11" s="4">
         <v>0.375</v>
       </c>
@@ -2221,25 +2323,25 @@
         <v>0.75</v>
       </c>
       <c r="E11" s="5">
-        <v>1121452045</v>
+        <v>1080543842</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="15.25" spans="3:10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
       <c r="C12" s="4">
         <v>0.375</v>
       </c>
@@ -2247,25 +2349,25 @@
         <v>0.75</v>
       </c>
       <c r="E12" s="5">
-        <v>1012764001</v>
+        <v>1121452045</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="3:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
       <c r="C13" s="4">
         <v>0.375</v>
       </c>
@@ -2273,25 +2375,25 @@
         <v>0.75</v>
       </c>
       <c r="E13" s="5">
-        <v>1013485587</v>
+        <v>1012764001</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="3:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
       <c r="C14" s="4">
         <v>0.375</v>
       </c>
@@ -2299,25 +2401,25 @@
         <v>0.75</v>
       </c>
       <c r="E14" s="5">
-        <v>1065734525</v>
+        <v>1013485587</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25" spans="3:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
       <c r="C15" s="4">
         <v>0.375</v>
       </c>
@@ -2325,13 +2427,13 @@
         <v>0.75</v>
       </c>
       <c r="E15" s="5">
-        <v>1110004685</v>
+        <v>1065734525</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>18</v>
@@ -2340,10 +2442,10 @@
         <v>19</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="3:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
       <c r="C16" s="4">
         <v>0.375</v>
       </c>
@@ -2351,25 +2453,25 @@
         <v>0.75</v>
       </c>
       <c r="E16" s="5">
-        <v>1125566955</v>
+        <v>1110004685</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="3:10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
       <c r="C17" s="4">
         <v>0.375</v>
       </c>
@@ -2377,25 +2479,25 @@
         <v>0.75</v>
       </c>
       <c r="E17" s="5">
-        <v>1011721424</v>
+        <v>1125566955</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="3:10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
       <c r="C18" s="4">
         <v>0.375</v>
       </c>
@@ -2403,25 +2505,25 @@
         <v>0.75</v>
       </c>
       <c r="E18" s="5">
-        <v>1206006198</v>
+        <v>1011721424</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="3:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
       <c r="C19" s="4">
         <v>0.375</v>
       </c>
@@ -2429,22 +2531,22 @@
         <v>0.75</v>
       </c>
       <c r="E19" s="5">
-        <v>1005729091</v>
+        <v>1206006198</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="3:10">
@@ -2455,22 +2557,22 @@
         <v>0.75</v>
       </c>
       <c r="E20" s="5">
-        <v>1142822210</v>
+        <v>1112106710</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="3:10">
@@ -2481,10 +2583,10 @@
         <v>0.75</v>
       </c>
       <c r="E21" s="5">
-        <v>1012692499</v>
+        <v>1005729091</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>80</v>
@@ -2493,15 +2595,68 @@
         <v>81</v>
       </c>
       <c r="I21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="3:10">
+      <c r="C22" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1142822210</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="3:10">
+      <c r="C23" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1012692499</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="24" ht="15.25"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C2:J21" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="C2:J21">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C2:J23" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="C3:J23">
       <sortCondition ref="H2"/>
     </sortState>
     <extLst/>

--- a/Accounts-Schedules/تدريب سامسونج 7-10-2025.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج 7-10-2025.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$2:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$D$25:$G$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="118">
   <si>
     <t>Below is the list of trainees scheduled for the Training at Samsung on Tuesday, October, 7th, from 9 AM to 6 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -219,76 +219,172 @@
     <t>احمد حكيم</t>
   </si>
   <si>
+    <t>احمد خالد</t>
+  </si>
+  <si>
+    <t>و - مدينتي</t>
+  </si>
+  <si>
+    <t>علي ماهر</t>
+  </si>
+  <si>
+    <t>آية أحمد</t>
+  </si>
+  <si>
+    <t>باهر بكر</t>
+  </si>
+  <si>
+    <t>بسمة حسني</t>
+  </si>
+  <si>
+    <t>اكرام عبد المنعم</t>
+  </si>
+  <si>
+    <t>إسراء رضا</t>
+  </si>
+  <si>
     <t>فريدة امبابي</t>
   </si>
   <si>
-    <t>آية أحمد</t>
+    <t>حبيبة عادل</t>
   </si>
   <si>
     <t>لاما جعفر</t>
   </si>
   <si>
+    <t>مرام عبدالله</t>
+  </si>
+  <si>
+    <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>محمد بكر</t>
+  </si>
+  <si>
+    <t>ندى عبد المعز</t>
+  </si>
+  <si>
+    <t>عمر محمد</t>
+  </si>
+  <si>
+    <t>أسامة أنور</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>رغد محمد</t>
+  </si>
+  <si>
+    <t>و - الشروق</t>
+  </si>
+  <si>
+    <t>سلمى محمد علي</t>
+  </si>
+  <si>
+    <t>سيف وليد</t>
+  </si>
+  <si>
     <t>ثريا معتز</t>
   </si>
   <si>
-    <t>حبيبة عادل</t>
-  </si>
-  <si>
-    <t>ندى عبد المعز</t>
-  </si>
-  <si>
-    <t>اكرام عبد المنعم</t>
-  </si>
-  <si>
-    <t>إسراء رضا</t>
-  </si>
-  <si>
-    <t>أسامة أنور</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>بسمة حسني</t>
-  </si>
-  <si>
-    <t>عمر محمد</t>
-  </si>
-  <si>
-    <t>سلمى محمد علي</t>
-  </si>
-  <si>
-    <t>علي ماهر</t>
-  </si>
-  <si>
-    <t>باهر بكر</t>
-  </si>
-  <si>
-    <t>محمد بكر</t>
-  </si>
-  <si>
-    <t>سيف وليد</t>
-  </si>
-  <si>
     <t>يسرا مبارك</t>
   </si>
   <si>
-    <t>رغد محمد</t>
-  </si>
-  <si>
-    <t>و - الشروق</t>
-  </si>
-  <si>
-    <t>احمد خالد</t>
-  </si>
-  <si>
-    <t>و - مدينتي</t>
-  </si>
-  <si>
-    <t>مرام عبدالله</t>
-  </si>
-  <si>
-    <t>ي - المعادي</t>
+    <t>TWWID</t>
+  </si>
+  <si>
+    <t>Employee name</t>
+  </si>
+  <si>
+    <t>Shift - Start</t>
+  </si>
+  <si>
+    <t>Shift - End</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>• Arrival Time: 9:00 AM</t>
+  </si>
+  <si>
+    <t>• Departure Time: 6:00 PM</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>بوابه 1</t>
+  </si>
+  <si>
+    <t>• Start Date: 13/10/2025</t>
+  </si>
+  <si>
+    <t>مصر الجديده</t>
+  </si>
+  <si>
+    <t>ميدان المحكمه</t>
+  </si>
+  <si>
+    <t>• End Date: 17/10/2025</t>
+  </si>
+  <si>
+    <t>اول فيصل</t>
+  </si>
+  <si>
+    <t>حلوان</t>
+  </si>
+  <si>
+    <t>مدخل العصافره</t>
+  </si>
+  <si>
+    <t>عمر افندي</t>
+  </si>
+  <si>
+    <t>جسر السويس</t>
+  </si>
+  <si>
+    <t>الف مسكن</t>
+  </si>
+  <si>
+    <t>معادي</t>
+  </si>
+  <si>
+    <t>شمال طره</t>
+  </si>
+  <si>
+    <t>Mona Abdelazim</t>
+  </si>
+  <si>
+    <t>مقطم</t>
+  </si>
+  <si>
+    <t>كريم بانونه</t>
+  </si>
+  <si>
+    <t>حدايق الاهرام</t>
+  </si>
+  <si>
+    <t>البوابه الاولي</t>
+  </si>
+  <si>
+    <t>عبور</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>واتر واي</t>
+  </si>
+  <si>
+    <t>مدينه نصر</t>
+  </si>
+  <si>
+    <t>منى عبد العظيم</t>
   </si>
 </sst>
 </file>
@@ -302,7 +398,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +424,27 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF003366"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -515,7 +632,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +648,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003366"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,61 +1060,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,74 +1114,83 @@
     <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,37 +1212,79 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1659,394 +1836,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="26">
         <v>1124540745</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="26">
         <v>1090500604</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="26">
         <v>1012692499</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="26">
         <v>1065734525</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="26">
         <v>1011721424</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="26">
         <v>1121452045</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="26">
         <v>1005729091</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="26">
         <v>1142822210</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="26">
         <v>1125566955</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="26">
         <v>1022171730</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="26">
         <v>1206006198</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="26">
         <v>1012997137</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="26">
         <v>1080543842</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="26">
         <v>1203330220</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="26">
         <v>1019247490</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="26">
         <v>1012764001</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="26">
         <v>1013485587</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="26">
         <v>1110004685</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="26">
         <v>1145687909</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="13" t="s">
+    <row r="23" ht="15.25"/>
+    <row r="24" ht="15.25" spans="1:4">
+      <c r="A24" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="16" t="s">
+    <row r="25" ht="15.25" spans="1:4">
+      <c r="A25" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="31">
         <v>1112106710</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="17" t="s">
+    <row r="26" ht="15.25" spans="1:4">
+      <c r="A26" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="30">
         <v>1118082037</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2059,28 +2237,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:J24"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C3:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.72727272727273" style="1"/>
     <col min="2" max="2" width="8.36363636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90909090909091" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81818181818182" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7272727272727" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81818181818182" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5454545454545" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5454545454545" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.2727272727273" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3727272727273" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8090909090909" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5454545454545" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.7272727272727" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.9090909090909" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25"/>
+    <row r="1" ht="16" customHeight="1"/>
     <row r="2" ht="16.25" spans="3:10">
       <c r="C2" s="2" t="s">
         <v>57</v>
@@ -2140,23 +2318,23 @@
       <c r="D4" s="4">
         <v>0.75</v>
       </c>
-      <c r="E4" s="5">
-        <v>1203330220</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="7">
+        <v>1142822210</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>41</v>
+      <c r="H4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="3:10">
@@ -2167,22 +2345,22 @@
         <v>0.75</v>
       </c>
       <c r="E5" s="5">
-        <v>1019247490</v>
+        <v>1110004685</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="3:10">
@@ -2192,23 +2370,23 @@
       <c r="D6" s="4">
         <v>0.75</v>
       </c>
-      <c r="E6" s="5">
-        <v>1118082037</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="7">
+        <v>1019247490</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>56</v>
+      <c r="J6" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="3:10">
@@ -2219,22 +2397,22 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="5">
-        <v>1124540745</v>
+        <v>1125566955</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:10">
@@ -2244,23 +2422,23 @@
       <c r="D8" s="4">
         <v>0.75</v>
       </c>
-      <c r="E8" s="5">
-        <v>1012997137</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="7">
+        <v>1012764001</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>38</v>
+      <c r="G8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="3:10">
@@ -2270,23 +2448,23 @@
       <c r="D9" s="4">
         <v>0.75</v>
       </c>
-      <c r="E9" s="5">
-        <v>1090500604</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="7">
+        <v>1022171730</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>11</v>
+      <c r="G9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="3:10">
@@ -2297,22 +2475,22 @@
         <v>0.75</v>
       </c>
       <c r="E10" s="5">
-        <v>1022171730</v>
+        <v>1080543842</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="3:10">
@@ -2323,22 +2501,22 @@
         <v>0.75</v>
       </c>
       <c r="E11" s="5">
-        <v>1080543842</v>
+        <v>1203330220</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>60</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="3:10">
@@ -2348,23 +2526,23 @@
       <c r="D12" s="4">
         <v>0.75</v>
       </c>
-      <c r="E12" s="5">
-        <v>1121452045</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="7">
+        <v>1012997137</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>23</v>
+      <c r="H12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="3:10">
@@ -2374,23 +2552,23 @@
       <c r="D13" s="4">
         <v>0.75</v>
       </c>
-      <c r="E13" s="5">
-        <v>1012764001</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="7">
+        <v>1118082037</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>46</v>
+      <c r="H13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="3:10">
@@ -2400,23 +2578,23 @@
       <c r="D14" s="4">
         <v>0.75</v>
       </c>
-      <c r="E14" s="5">
-        <v>1013485587</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="7">
+        <v>1012692499</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>49</v>
+      <c r="H14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="3:10">
@@ -2427,22 +2605,22 @@
         <v>0.75</v>
       </c>
       <c r="E15" s="5">
-        <v>1065734525</v>
+        <v>1011721424</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:10">
@@ -2452,23 +2630,23 @@
       <c r="D16" s="4">
         <v>0.75</v>
       </c>
-      <c r="E16" s="5">
-        <v>1110004685</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="7">
+        <v>1090500604</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>51</v>
+      <c r="G16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -2479,22 +2657,22 @@
         <v>0.75</v>
       </c>
       <c r="E17" s="5">
-        <v>1125566955</v>
+        <v>1013485587</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="3:10">
@@ -2504,23 +2682,23 @@
       <c r="D18" s="4">
         <v>0.75</v>
       </c>
-      <c r="E18" s="5">
-        <v>1011721424</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="7">
+        <v>1121452045</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>20</v>
+      <c r="G18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="3:10">
@@ -2530,78 +2708,78 @@
       <c r="D19" s="4">
         <v>0.75</v>
       </c>
-      <c r="E19" s="5">
-        <v>1206006198</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="7">
+        <v>1005729091</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="3:10">
+      <c r="G19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
       <c r="C20" s="4">
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
         <v>0.75</v>
       </c>
-      <c r="E20" s="5">
-        <v>1112106710</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="7">
+        <v>1065734525</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="3:10">
+      <c r="G20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
       <c r="C21" s="4">
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
         <v>0.75</v>
       </c>
-      <c r="E21" s="5">
-        <v>1005729091</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="7">
+        <v>1206006198</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="3:10">
+      <c r="G21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
       <c r="C22" s="4">
         <v>0.375</v>
       </c>
@@ -2609,58 +2787,658 @@
         <v>0.75</v>
       </c>
       <c r="E22" s="5">
-        <v>1142822210</v>
+        <v>1124540745</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="3:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
       <c r="C23" s="4">
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
         <v>0.75</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="7">
+        <v>1112106710</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25"/>
+    <row r="25" ht="15.25" spans="4:9">
+      <c r="D25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="12">
+        <v>10343278</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="16">
+        <v>10343408</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="12">
+        <v>10343407</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="4:9">
+      <c r="D30" s="12">
+        <v>10343406</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="4:9">
+      <c r="D31" s="12">
+        <v>10343271</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="4:9">
+      <c r="D32" s="16">
+        <v>10343276</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="4:9">
+      <c r="D33" s="16">
+        <v>10343270</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="4:9">
+      <c r="D34" s="12">
+        <v>10294264</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="4:9">
+      <c r="D35" s="16">
+        <v>10343287</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="4:9">
+      <c r="D36" s="16">
+        <v>10343404</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="4:9">
+      <c r="D37" s="16">
+        <v>10343286</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="4:9">
+      <c r="D38" s="12">
+        <v>10343405</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="4:9">
+      <c r="D39" s="16">
+        <v>10343290</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="4:9">
+      <c r="D40" s="12">
+        <v>10343397</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="1">
+        <v>10343278</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1142822210</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="1">
+        <v>10343408</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1019247490</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44" s="1">
+        <v>10343407</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1012764001</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="1">
+        <v>10343406</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1022171730</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="1">
+        <v>10343271</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1012997137</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" s="1">
+        <v>10343276</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1118082037</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="1">
+        <v>10343270</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="1">
         <v>1012692499</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="1">
+        <v>10294264</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="1">
+        <v>10343287</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1090500604</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="1">
+        <v>10343404</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1121452045</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="1">
+        <v>10343286</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1005729091</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="1">
+        <v>10343405</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1065734525</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="1">
+        <v>10343290</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1206006198</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="1">
+        <v>10343397</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25"/>
+      <c r="G55" s="1">
+        <v>1112106710</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C2:J23" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="C3:J23">
-      <sortCondition ref="H2"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <mergeCells count="6">
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
